--- a/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.ConceptMap.Translate.xlsx
+++ b/ITI/SVCM/StructureDefinition-IHE.SVCM.Audit.ConceptMap.Translate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,10 +271,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -293,7 +289,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -683,6 +679,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2466,16 +2466,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2500,28 +2500,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2571,13 +2571,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2617,25 +2617,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2686,19 +2686,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2732,28 +2732,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2803,19 +2803,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2849,7 +2849,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2861,16 +2861,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2896,43 +2896,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2955,18 +2955,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2978,16 +2978,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3037,25 +3037,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3072,11 +3072,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3095,16 +3095,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3154,7 +3154,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3172,7 +3172,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3189,11 +3189,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3212,16 +3212,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3271,7 +3271,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3283,13 +3283,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3306,11 +3306,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3323,25 +3323,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3390,7 +3390,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3402,13 +3402,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3433,32 +3433,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3468,73 +3468,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3562,20 +3562,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3600,29 +3600,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3634,19 +3634,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3657,52 +3657,52 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3717,14 +3717,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3753,19 +3753,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3776,42 +3776,42 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3821,7 +3821,7 @@
         <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3836,14 +3836,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3872,19 +3872,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3906,29 +3906,29 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3938,70 +3938,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
+      <c r="X15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4023,7 +4023,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -4035,16 +4035,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4094,42 +4094,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4137,34 +4137,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4213,42 +4213,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4259,28 +4259,28 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4306,55 +4306,55 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4376,19 +4376,19 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>212</v>
@@ -4445,19 +4445,19 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4469,7 +4469,7 @@
         <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4500,7 +4500,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>217</v>
@@ -4538,7 +4538,7 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>221</v>
@@ -4574,7 +4574,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>223</v>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>80</v>
@@ -4676,13 +4676,13 @@
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4691,7 +4691,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>237</v>
@@ -4725,7 +4725,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4737,7 +4737,7 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>244</v>
@@ -4800,7 +4800,7 @@
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4852,16 +4852,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4923,7 +4923,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -4963,13 +4963,13 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>253</v>
@@ -4978,10 +4978,10 @@
         <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -5042,13 +5042,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -5076,7 +5076,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -5121,7 +5121,7 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>259</v>
@@ -5151,13 +5151,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>261</v>
@@ -5276,7 +5276,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5310,16 +5310,16 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>278</v>
@@ -5389,13 +5389,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>283</v>
@@ -5429,7 +5429,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5441,7 +5441,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>289</v>
@@ -5506,13 +5506,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5546,7 +5546,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5558,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>295</v>
@@ -5623,13 +5623,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5660,19 +5660,19 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>301</v>
@@ -5739,16 +5739,16 @@
         <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5782,7 +5782,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5857,13 +5857,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>312</v>
@@ -5909,7 +5909,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>318</v>
@@ -5982,7 +5982,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6016,7 +6016,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6028,7 +6028,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>326</v>
@@ -6063,7 +6063,7 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>329</v>
@@ -6093,13 +6093,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6133,7 +6133,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6208,13 +6208,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6248,7 +6248,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6260,7 +6260,7 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>244</v>
@@ -6323,7 +6323,7 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6375,16 +6375,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6446,7 +6446,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6486,13 +6486,13 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>253</v>
@@ -6501,10 +6501,10 @@
         <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6565,13 +6565,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6599,7 +6599,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6611,7 +6611,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>341</v>
@@ -6678,13 +6678,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6718,7 +6718,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6730,7 +6730,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>349</v>
@@ -6765,7 +6765,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>352</v>
@@ -6795,13 +6795,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6882,7 +6882,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>221</v>
@@ -6918,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6951,10 +6951,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -7030,7 +7030,7 @@
         <v>229</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7039,7 +7039,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>237</v>
@@ -7073,7 +7073,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7085,7 +7085,7 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>244</v>
@@ -7148,7 +7148,7 @@
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7200,16 +7200,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7271,7 +7271,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -7311,13 +7311,13 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>253</v>
@@ -7326,10 +7326,10 @@
         <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7390,13 +7390,13 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -7421,10 +7421,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7469,7 +7469,7 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>259</v>
@@ -7499,13 +7499,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>261</v>
@@ -7624,7 +7624,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7655,19 +7655,19 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>278</v>
@@ -7737,13 +7737,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>283</v>
@@ -7777,7 +7777,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7789,7 +7789,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>289</v>
@@ -7854,13 +7854,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7894,7 +7894,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7906,7 +7906,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>295</v>
@@ -7971,13 +7971,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8008,19 +8008,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>301</v>
@@ -8087,16 +8087,16 @@
         <v>300</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8130,7 +8130,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8205,13 +8205,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>312</v>
@@ -8257,7 +8257,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>318</v>
@@ -8330,7 +8330,7 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8376,7 +8376,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>326</v>
@@ -8411,7 +8411,7 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>329</v>
@@ -8441,13 +8441,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8478,10 +8478,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8556,13 +8556,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8596,7 +8596,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8608,7 +8608,7 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>244</v>
@@ -8671,7 +8671,7 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8723,16 +8723,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8794,7 +8794,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8834,13 +8834,13 @@
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>253</v>
@@ -8849,10 +8849,10 @@
         <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8913,13 +8913,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8947,7 +8947,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8959,7 +8959,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>341</v>
@@ -9026,13 +9026,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9066,7 +9066,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9078,7 +9078,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>349</v>
@@ -9113,7 +9113,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>352</v>
@@ -9143,13 +9143,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9230,7 +9230,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>221</v>
@@ -9266,7 +9266,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9299,10 +9299,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9378,7 +9378,7 @@
         <v>229</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9387,7 +9387,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>237</v>
@@ -9421,7 +9421,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9433,7 +9433,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>244</v>
@@ -9496,7 +9496,7 @@
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9548,16 +9548,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9619,7 +9619,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9659,13 +9659,13 @@
         <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>253</v>
@@ -9674,10 +9674,10 @@
         <v>254</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9738,13 +9738,13 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9769,10 +9769,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9817,7 +9817,7 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X65" t="s" s="2">
         <v>259</v>
@@ -9847,13 +9847,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>261</v>
@@ -9972,7 +9972,7 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -10003,19 +10003,19 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>278</v>
@@ -10085,13 +10085,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>283</v>
@@ -10125,7 +10125,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10137,7 +10137,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>289</v>
@@ -10202,13 +10202,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10242,7 +10242,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10254,7 +10254,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>295</v>
@@ -10319,13 +10319,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10356,19 +10356,19 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>301</v>
@@ -10435,16 +10435,16 @@
         <v>300</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10478,7 +10478,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10553,13 +10553,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>312</v>
@@ -10605,7 +10605,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>318</v>
@@ -10678,7 +10678,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10724,7 +10724,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>326</v>
@@ -10759,7 +10759,7 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>329</v>
@@ -10789,13 +10789,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10826,10 +10826,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10904,13 +10904,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10944,7 +10944,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10956,7 +10956,7 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>244</v>
@@ -11019,7 +11019,7 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -11052,7 +11052,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11071,16 +11071,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11142,7 +11142,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11182,13 +11182,13 @@
         <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>253</v>
@@ -11197,10 +11197,10 @@
         <v>254</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11261,13 +11261,13 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11295,7 +11295,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11307,7 +11307,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>341</v>
@@ -11374,13 +11374,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11414,7 +11414,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11426,7 +11426,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>349</v>
@@ -11461,7 +11461,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>352</v>
@@ -11491,13 +11491,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11578,7 +11578,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>221</v>
@@ -11614,7 +11614,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11650,7 +11650,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11726,7 +11726,7 @@
         <v>229</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11735,7 +11735,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>237</v>
@@ -11769,7 +11769,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11781,7 +11781,7 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>244</v>
@@ -11844,7 +11844,7 @@
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11896,16 +11896,16 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11967,7 +11967,7 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
@@ -12007,13 +12007,13 @@
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>253</v>
@@ -12022,10 +12022,10 @@
         <v>254</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -12086,13 +12086,13 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
@@ -12117,10 +12117,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12165,7 +12165,7 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>259</v>
@@ -12195,13 +12195,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>261</v>
@@ -12238,7 +12238,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12320,7 +12320,7 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12351,19 +12351,19 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>278</v>
@@ -12433,13 +12433,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>283</v>
@@ -12473,7 +12473,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12485,7 +12485,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>289</v>
@@ -12550,13 +12550,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12590,11 +12590,11 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>295</v>
@@ -12667,13 +12667,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12704,19 +12704,19 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>301</v>
@@ -12783,16 +12783,16 @@
         <v>300</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12826,7 +12826,7 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>78</v>
@@ -12901,13 +12901,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>312</v>
@@ -12953,7 +12953,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>318</v>
@@ -13026,7 +13026,7 @@
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13072,7 +13072,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>326</v>
@@ -13107,7 +13107,7 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>329</v>
@@ -13137,13 +13137,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13252,13 +13252,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13292,7 +13292,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>78</v>
@@ -13304,7 +13304,7 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>244</v>
@@ -13367,7 +13367,7 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
@@ -13400,7 +13400,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13419,16 +13419,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13490,7 +13490,7 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13530,13 +13530,13 @@
         <v>78</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>253</v>
@@ -13545,10 +13545,10 @@
         <v>254</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>78</v>
@@ -13609,13 +13609,13 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>78</v>
@@ -13643,7 +13643,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13655,7 +13655,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>341</v>
@@ -13722,13 +13722,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13762,7 +13762,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13774,7 +13774,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>349</v>
@@ -13809,7 +13809,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>352</v>
@@ -13839,13 +13839,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13882,7 +13882,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13926,7 +13926,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>221</v>
@@ -13962,7 +13962,7 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -13993,13 +13993,13 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14072,16 +14072,16 @@
         <v>368</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14115,7 +14115,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>78</v>
@@ -14127,7 +14127,7 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>244</v>
@@ -14190,7 +14190,7 @@
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14242,16 +14242,16 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14313,7 +14313,7 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
@@ -14353,13 +14353,13 @@
         <v>78</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>253</v>
@@ -14368,10 +14368,10 @@
         <v>254</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>78</v>
@@ -14432,13 +14432,13 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
@@ -14466,7 +14466,7 @@
         <v>79</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>78</v>
@@ -14478,7 +14478,7 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>380</v>
@@ -14543,13 +14543,13 @@
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14580,19 +14580,19 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>278</v>
@@ -14657,16 +14657,16 @@
         <v>385</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14712,7 +14712,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>392</v>
@@ -14747,7 +14747,7 @@
         <v>78</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>395</v>
@@ -14783,7 +14783,7 @@
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>80</v>
@@ -14885,7 +14885,7 @@
         <v>78</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>399</v>
@@ -14912,7 +14912,7 @@
         <v>407</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>408</v>
@@ -14934,7 +14934,7 @@
         <v>79</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>78</v>
@@ -14946,7 +14946,7 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>244</v>
@@ -15009,7 +15009,7 @@
         <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
@@ -15042,7 +15042,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15061,16 +15061,16 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15132,7 +15132,7 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
@@ -15172,13 +15172,13 @@
         <v>78</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>253</v>
@@ -15187,10 +15187,10 @@
         <v>254</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>78</v>
@@ -15251,13 +15251,13 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>78</v>
@@ -15285,16 +15285,16 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>414</v>
@@ -15360,13 +15360,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15378,7 +15378,7 @@
         <v>417</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15400,7 +15400,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15412,7 +15412,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>420</v>
@@ -15449,7 +15449,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>424</v>
@@ -15479,13 +15479,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15497,7 +15497,7 @@
         <v>427</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>428</v>
@@ -15519,7 +15519,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15531,7 +15531,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>431</v>
@@ -15566,7 +15566,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>434</v>
@@ -15596,13 +15596,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15636,7 +15636,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15648,7 +15648,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>441</v>
@@ -15685,7 +15685,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>442</v>
@@ -15715,13 +15715,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15767,7 +15767,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>450</v>
@@ -15804,7 +15804,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>454</v>
@@ -15840,7 +15840,7 @@
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15874,19 +15874,19 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>459</v>
@@ -15953,13 +15953,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -15993,7 +15993,7 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>78</v>
@@ -16005,7 +16005,7 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>468</v>
@@ -16070,13 +16070,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16110,16 +16110,16 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>473</v>
@@ -16189,13 +16189,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16312,7 +16312,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16346,7 +16346,7 @@
         <v>79</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>78</v>
@@ -16358,7 +16358,7 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>244</v>
@@ -16421,7 +16421,7 @@
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16473,16 +16473,16 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16544,7 +16544,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16584,13 +16584,13 @@
         <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>253</v>
@@ -16599,10 +16599,10 @@
         <v>254</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>78</v>
@@ -16663,13 +16663,13 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>78</v>
@@ -16694,10 +16694,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16709,7 +16709,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>490</v>
@@ -16769,16 +16769,16 @@
         <v>489</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16809,10 +16809,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16888,16 +16888,16 @@
         <v>493</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16933,7 +16933,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17030,7 +17030,7 @@
         <v>407</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>408</v>
@@ -17052,7 +17052,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17064,7 +17064,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>244</v>
@@ -17127,7 +17127,7 @@
         <v>79</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17179,16 +17179,16 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17250,7 +17250,7 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
@@ -17290,13 +17290,13 @@
         <v>78</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>253</v>
@@ -17305,10 +17305,10 @@
         <v>254</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>78</v>
@@ -17369,13 +17369,13 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>78</v>
@@ -17403,16 +17403,16 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>414</v>
@@ -17478,13 +17478,13 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17496,7 +17496,7 @@
         <v>417</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17518,7 +17518,7 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>78</v>
@@ -17530,7 +17530,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>244</v>
@@ -17593,7 +17593,7 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
@@ -17626,7 +17626,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17645,16 +17645,16 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17701,7 +17701,7 @@
         <v>78</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>250</v>
@@ -17716,7 +17716,7 @@
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17750,19 +17750,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>507</v>
@@ -17827,19 +17827,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>511</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17867,19 +17867,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>513</v>
@@ -17914,7 +17914,7 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>516</v>
@@ -17944,19 +17944,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -17984,16 +17984,16 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>520</v>
@@ -18061,13 +18061,13 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -18101,7 +18101,7 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -18113,7 +18113,7 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>244</v>
@@ -18176,7 +18176,7 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18228,16 +18228,16 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18284,7 +18284,7 @@
         <v>78</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>250</v>
@@ -18299,7 +18299,7 @@
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18333,19 +18333,19 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I138" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>529</v>
@@ -18382,7 +18382,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>533</v>
@@ -18412,13 +18412,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18452,16 +18452,16 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>217</v>
@@ -18501,7 +18501,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>542</v>
@@ -18531,13 +18531,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18571,19 +18571,19 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>546</v>
@@ -18650,13 +18650,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18687,22 +18687,22 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>554</v>
@@ -18767,13 +18767,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18807,19 +18807,19 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>561</v>
@@ -18882,13 +18882,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18922,16 +18922,16 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>566</v>
@@ -18999,13 +18999,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19039,19 +19039,19 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J144" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>573</v>
@@ -19116,19 +19116,19 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>78</v>
@@ -19153,10 +19153,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19168,7 +19168,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>420</v>
@@ -19205,7 +19205,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>424</v>
@@ -19235,13 +19235,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19253,7 +19253,7 @@
         <v>427</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>428</v>
@@ -19275,7 +19275,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19287,7 +19287,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>431</v>
@@ -19322,7 +19322,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>434</v>
@@ -19352,13 +19352,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19392,7 +19392,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19404,7 +19404,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>441</v>
@@ -19441,7 +19441,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>442</v>
@@ -19471,13 +19471,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19523,7 +19523,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>450</v>
@@ -19560,7 +19560,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>454</v>
@@ -19596,7 +19596,7 @@
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19630,19 +19630,19 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>459</v>
@@ -19709,13 +19709,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19749,7 +19749,7 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>78</v>
@@ -19761,7 +19761,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>468</v>
@@ -19826,13 +19826,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19866,16 +19866,16 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>473</v>
@@ -19945,13 +19945,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20068,7 +20068,7 @@
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20102,7 +20102,7 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>78</v>
@@ -20114,7 +20114,7 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>244</v>
@@ -20177,7 +20177,7 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>78</v>
@@ -20210,7 +20210,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20229,16 +20229,16 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K154" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20300,7 +20300,7 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20340,13 +20340,13 @@
         <v>78</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>253</v>
@@ -20355,10 +20355,10 @@
         <v>254</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>78</v>
@@ -20419,13 +20419,13 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>78</v>
@@ -20450,10 +20450,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20465,7 +20465,7 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>490</v>
@@ -20525,16 +20525,16 @@
         <v>489</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20565,10 +20565,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20644,16 +20644,16 @@
         <v>493</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20686,10 +20686,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20786,7 +20786,7 @@
         <v>407</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>408</v>
@@ -20808,7 +20808,7 @@
         <v>79</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20820,7 +20820,7 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>244</v>
@@ -20883,7 +20883,7 @@
         <v>79</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20935,16 +20935,16 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21006,7 +21006,7 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
@@ -21046,13 +21046,13 @@
         <v>78</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>253</v>
@@ -21061,10 +21061,10 @@
         <v>254</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>78</v>
@@ -21125,13 +21125,13 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>78</v>
@@ -21156,19 +21156,19 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I162" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>579</v>
@@ -21234,13 +21234,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21252,7 +21252,7 @@
         <v>417</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>78</v>
@@ -21271,10 +21271,10 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21286,7 +21286,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>420</v>
@@ -21323,7 +21323,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X163" t="s" s="2">
         <v>424</v>
@@ -21353,13 +21353,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21371,7 +21371,7 @@
         <v>427</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>428</v>
@@ -21393,7 +21393,7 @@
         <v>79</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21405,7 +21405,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>431</v>
@@ -21440,7 +21440,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X164" t="s" s="2">
         <v>434</v>
@@ -21470,13 +21470,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21522,7 +21522,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>441</v>
@@ -21559,7 +21559,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>442</v>
@@ -21589,13 +21589,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21641,7 +21641,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>582</v>
@@ -21678,7 +21678,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>454</v>
@@ -21714,7 +21714,7 @@
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21748,19 +21748,19 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I167" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>459</v>
@@ -21827,13 +21827,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21867,7 +21867,7 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>78</v>
@@ -21879,7 +21879,7 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>468</v>
@@ -21944,13 +21944,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -21993,7 +21993,7 @@
         <v>78</v>
       </c>
       <c r="I169" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>473</v>
@@ -22063,13 +22063,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22186,7 +22186,7 @@
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22220,7 +22220,7 @@
         <v>79</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>78</v>
@@ -22232,7 +22232,7 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>244</v>
@@ -22295,7 +22295,7 @@
         <v>79</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>78</v>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22347,16 +22347,16 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22418,7 +22418,7 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -22458,13 +22458,13 @@
         <v>78</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>253</v>
@@ -22473,10 +22473,10 @@
         <v>254</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>78</v>
@@ -22537,13 +22537,13 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>78</v>
@@ -22568,10 +22568,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22583,7 +22583,7 @@
         <v>78</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>490</v>
@@ -22643,16 +22643,16 @@
         <v>489</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22683,10 +22683,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22762,16 +22762,16 @@
         <v>493</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
